--- a/data/pca/factorExposure/factorExposure_2019-06-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.11768464006576</v>
+        <v>-0.07813283575234008</v>
       </c>
       <c r="C2">
-        <v>-0.01253938034518221</v>
+        <v>-0.01524157675456943</v>
       </c>
       <c r="D2">
-        <v>-0.03864348354134875</v>
+        <v>-0.03574141390442345</v>
       </c>
       <c r="E2">
-        <v>0.1020236440852665</v>
+        <v>-0.1366492663277869</v>
       </c>
       <c r="F2">
-        <v>0.05879482514920428</v>
+        <v>-0.009672412137199105</v>
       </c>
       <c r="G2">
-        <v>0.07156404784328407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07697621882499213</v>
+      </c>
+      <c r="H2">
+        <v>-0.07907872343243469</v>
+      </c>
+      <c r="I2">
+        <v>-0.08017413035707345</v>
+      </c>
+      <c r="J2">
+        <v>-0.03219328527736741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.1955688653610983</v>
+        <v>-0.1541689643925842</v>
       </c>
       <c r="C3">
-        <v>0.08671607996080964</v>
+        <v>-0.09575305369206223</v>
       </c>
       <c r="D3">
-        <v>0.05445065599578307</v>
+        <v>0.04357657062114161</v>
       </c>
       <c r="E3">
-        <v>0.3232640645139565</v>
+        <v>-0.3646003741043919</v>
       </c>
       <c r="F3">
-        <v>-0.02552568239386108</v>
+        <v>-0.1140220032195569</v>
       </c>
       <c r="G3">
-        <v>0.3105517387220165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.02208131563568243</v>
+      </c>
+      <c r="H3">
+        <v>-0.274867343838012</v>
+      </c>
+      <c r="I3">
+        <v>-0.1622274772919879</v>
+      </c>
+      <c r="J3">
+        <v>0.07854954232458221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09330381649865489</v>
+        <v>-0.07235339178940452</v>
       </c>
       <c r="C4">
-        <v>0.01961413741613941</v>
+        <v>-0.03108651884428041</v>
       </c>
       <c r="D4">
-        <v>-0.008863100699733766</v>
+        <v>-0.02336575663130634</v>
       </c>
       <c r="E4">
-        <v>0.08921807320460538</v>
+        <v>-0.0868384268112935</v>
       </c>
       <c r="F4">
-        <v>0.03611875680423537</v>
+        <v>-0.05395932111450911</v>
       </c>
       <c r="G4">
-        <v>0.02047085712240081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03381061596179952</v>
+      </c>
+      <c r="H4">
+        <v>-0.03984232345133006</v>
+      </c>
+      <c r="I4">
+        <v>-0.01126962180321798</v>
+      </c>
+      <c r="J4">
+        <v>0.04304348432695886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.009836871349934944</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.005443876845406087</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.002031705531456319</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006366663455717157</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0003821357037417803</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01335085951929924</v>
+      </c>
+      <c r="H6">
+        <v>-0.001663633788590908</v>
+      </c>
+      <c r="I6">
+        <v>-0.001398554919732025</v>
+      </c>
+      <c r="J6">
+        <v>0.001386924627212841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04029285494420919</v>
+        <v>-0.03466009766799608</v>
       </c>
       <c r="C7">
-        <v>0.003758541206744927</v>
+        <v>-0.01542274730564411</v>
       </c>
       <c r="D7">
-        <v>-0.0296334034807928</v>
+        <v>-0.01780347676998988</v>
       </c>
       <c r="E7">
-        <v>0.07007499312143406</v>
+        <v>-0.05763251311111716</v>
       </c>
       <c r="F7">
-        <v>-0.0552529543181943</v>
+        <v>-0.02817710983871678</v>
       </c>
       <c r="G7">
-        <v>0.02162297814298231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0186604230697022</v>
+      </c>
+      <c r="H7">
+        <v>-0.04484486326737256</v>
+      </c>
+      <c r="I7">
+        <v>0.006150294314511607</v>
+      </c>
+      <c r="J7">
+        <v>0.02960328189953523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03795700584171663</v>
+        <v>-0.02983614592764193</v>
       </c>
       <c r="C8">
-        <v>0.03469823082188008</v>
+        <v>-0.036721437722735</v>
       </c>
       <c r="D8">
-        <v>0.003080566769566421</v>
+        <v>-0.008628404210799058</v>
       </c>
       <c r="E8">
-        <v>0.07241886286057184</v>
+        <v>-0.07771823017183037</v>
       </c>
       <c r="F8">
-        <v>-0.004991819529281299</v>
+        <v>-0.04613555600352533</v>
       </c>
       <c r="G8">
-        <v>0.04495627351640939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.004414477348694888</v>
+      </c>
+      <c r="H8">
+        <v>-0.05631494621331538</v>
+      </c>
+      <c r="I8">
+        <v>-0.03414094382356932</v>
+      </c>
+      <c r="J8">
+        <v>0.02319792007194392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08265425511408069</v>
+        <v>-0.06155405115805997</v>
       </c>
       <c r="C9">
-        <v>0.02074050021048625</v>
+        <v>-0.03008855547333959</v>
       </c>
       <c r="D9">
-        <v>-0.02064728748345231</v>
+        <v>-0.02510359649799276</v>
       </c>
       <c r="E9">
-        <v>0.08243665996486794</v>
+        <v>-0.08372227073711203</v>
       </c>
       <c r="F9">
-        <v>0.02132601470422596</v>
+        <v>-0.05871782382113165</v>
       </c>
       <c r="G9">
-        <v>0.02109930763090406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02201132557367505</v>
+      </c>
+      <c r="H9">
+        <v>-0.03588032740429298</v>
+      </c>
+      <c r="I9">
+        <v>-0.008574680908690076</v>
+      </c>
+      <c r="J9">
+        <v>0.009835063504615171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02058322272768532</v>
+        <v>-0.00581840070590304</v>
       </c>
       <c r="C10">
-        <v>-0.1589324778647394</v>
+        <v>0.1573204596734703</v>
       </c>
       <c r="D10">
-        <v>0.000241108015864784</v>
+        <v>0.01517356712325912</v>
       </c>
       <c r="E10">
-        <v>0.03945005947747866</v>
+        <v>-0.05047454525326114</v>
       </c>
       <c r="F10">
-        <v>-0.006458945702835388</v>
+        <v>-0.006646862623984906</v>
       </c>
       <c r="G10">
-        <v>-0.02099549575062416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01174237722607603</v>
+      </c>
+      <c r="H10">
+        <v>0.02107299368295242</v>
+      </c>
+      <c r="I10">
+        <v>-0.106311265141411</v>
+      </c>
+      <c r="J10">
+        <v>0.06778825067266547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05925374810490093</v>
+        <v>-0.05050983535767804</v>
       </c>
       <c r="C11">
-        <v>-0.001102877452925067</v>
+        <v>-0.01642923618963324</v>
       </c>
       <c r="D11">
-        <v>0.0080982512817685</v>
+        <v>-0.005012517731921449</v>
       </c>
       <c r="E11">
-        <v>0.04448805490823252</v>
+        <v>-0.04875909407109873</v>
       </c>
       <c r="F11">
-        <v>-0.005024033248356223</v>
+        <v>-0.003438991451004232</v>
       </c>
       <c r="G11">
-        <v>-0.01178335590180305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.000595403840276149</v>
+      </c>
+      <c r="H11">
+        <v>-0.02071388585016177</v>
+      </c>
+      <c r="I11">
+        <v>0.01154742462814736</v>
+      </c>
+      <c r="J11">
+        <v>-0.004796530299345673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04927640327594476</v>
+        <v>-0.04859587346697728</v>
       </c>
       <c r="C12">
-        <v>0.002489833595064863</v>
+        <v>-0.01710297823664834</v>
       </c>
       <c r="D12">
-        <v>0.004059912816923149</v>
+        <v>-0.007497378893617028</v>
       </c>
       <c r="E12">
-        <v>0.02752519972188328</v>
+        <v>-0.025213066597243</v>
       </c>
       <c r="F12">
-        <v>-0.009387568919046255</v>
+        <v>-0.01899477795946168</v>
       </c>
       <c r="G12">
-        <v>0.002148225466397019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003624557937904246</v>
+      </c>
+      <c r="H12">
+        <v>-0.0104334817242316</v>
+      </c>
+      <c r="I12">
+        <v>0.01921692179439412</v>
+      </c>
+      <c r="J12">
+        <v>-0.00758479200042837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0549749899496468</v>
+        <v>-0.03814273832884384</v>
       </c>
       <c r="C13">
-        <v>0.01804221870557169</v>
+        <v>-0.02261591037005339</v>
       </c>
       <c r="D13">
-        <v>0.009639569094237172</v>
+        <v>-0.005032749843472938</v>
       </c>
       <c r="E13">
-        <v>0.1102881495279531</v>
+        <v>-0.1054000071018718</v>
       </c>
       <c r="F13">
-        <v>2.10372981906127e-05</v>
+        <v>-0.008118278289470924</v>
       </c>
       <c r="G13">
-        <v>0.01661189339900343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.001470350863590298</v>
+      </c>
+      <c r="H13">
+        <v>-0.05317137189502025</v>
+      </c>
+      <c r="I13">
+        <v>-0.03595027297486696</v>
+      </c>
+      <c r="J13">
+        <v>-0.01593937543155147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0373049670466053</v>
+        <v>-0.02821333221847638</v>
       </c>
       <c r="C14">
-        <v>0.006063311557692278</v>
+        <v>-0.01435954321647561</v>
       </c>
       <c r="D14">
-        <v>-0.01799731157420816</v>
+        <v>-0.02137888019046099</v>
       </c>
       <c r="E14">
-        <v>0.02350514143164199</v>
+        <v>-0.03748984970293312</v>
       </c>
       <c r="F14">
-        <v>-0.006423105550550856</v>
+        <v>-0.01948108570666023</v>
       </c>
       <c r="G14">
-        <v>0.03254087279379764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01206788268283267</v>
+      </c>
+      <c r="H14">
+        <v>-0.06240281722515571</v>
+      </c>
+      <c r="I14">
+        <v>-0.02337398125845832</v>
+      </c>
+      <c r="J14">
+        <v>0.01208524106211951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05166572728021362</v>
+        <v>-0.0426466353915756</v>
       </c>
       <c r="C16">
-        <v>0.01644680622541699</v>
+        <v>-0.02546622380645749</v>
       </c>
       <c r="D16">
-        <v>0.02026283601489565</v>
+        <v>0.001459764541716128</v>
       </c>
       <c r="E16">
-        <v>0.04333447025032304</v>
+        <v>-0.04518858586300668</v>
       </c>
       <c r="F16">
-        <v>-0.006372124160778632</v>
+        <v>-0.007325927326713704</v>
       </c>
       <c r="G16">
-        <v>-0.005783786788276025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00534792254454555</v>
+      </c>
+      <c r="H16">
+        <v>-0.02057673232033129</v>
+      </c>
+      <c r="I16">
+        <v>0.0139244160434489</v>
+      </c>
+      <c r="J16">
+        <v>-0.0004064637579738725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.0437666564328192</v>
+        <v>-0.04589232033059606</v>
       </c>
       <c r="C19">
-        <v>0.03020119106482853</v>
+        <v>-0.03415984356080772</v>
       </c>
       <c r="D19">
-        <v>0.006438473628834596</v>
+        <v>-0.007027198675063054</v>
       </c>
       <c r="E19">
-        <v>0.07958547827669707</v>
+        <v>-0.09322063153543844</v>
       </c>
       <c r="F19">
-        <v>-0.01047349107404236</v>
+        <v>-0.03028309985546146</v>
       </c>
       <c r="G19">
-        <v>0.03726051527394642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.00868980096592936</v>
+      </c>
+      <c r="H19">
+        <v>-0.07461243120117671</v>
+      </c>
+      <c r="I19">
+        <v>-0.07042284955169767</v>
+      </c>
+      <c r="J19">
+        <v>0.0016711143166443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03152133151412929</v>
+        <v>-0.01677143494732907</v>
       </c>
       <c r="C20">
-        <v>0.03362846250694975</v>
+        <v>-0.03331446942747004</v>
       </c>
       <c r="D20">
-        <v>-0.00119634782324158</v>
+        <v>-0.01293947817532216</v>
       </c>
       <c r="E20">
-        <v>0.07220233515809572</v>
+        <v>-0.07199563190231177</v>
       </c>
       <c r="F20">
-        <v>-0.02081118748593163</v>
+        <v>-0.03335467039187334</v>
       </c>
       <c r="G20">
-        <v>0.04159631226110549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01284457999589167</v>
+      </c>
+      <c r="H20">
+        <v>-0.07718106655083123</v>
+      </c>
+      <c r="I20">
+        <v>-0.01766730188812875</v>
+      </c>
+      <c r="J20">
+        <v>0.02344279026619731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03345421098190487</v>
+        <v>-0.01601707163742474</v>
       </c>
       <c r="C21">
-        <v>0.01925685260571084</v>
+        <v>-0.02556457972817169</v>
       </c>
       <c r="D21">
-        <v>0.01100517834968651</v>
+        <v>0.0088426282877956</v>
       </c>
       <c r="E21">
-        <v>0.0919912091743848</v>
+        <v>-0.08181266620669271</v>
       </c>
       <c r="F21">
-        <v>0.02300458725553406</v>
+        <v>-0.02767623288758731</v>
       </c>
       <c r="G21">
-        <v>0.02168206516396578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01363697250326322</v>
+      </c>
+      <c r="H21">
+        <v>-0.04479381289113579</v>
+      </c>
+      <c r="I21">
+        <v>-0.01544459995073919</v>
+      </c>
+      <c r="J21">
+        <v>-0.02739735544066552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04626805874473434</v>
+        <v>-0.04061036912300135</v>
       </c>
       <c r="C24">
-        <v>0.01060718068317643</v>
+        <v>-0.01598744410250522</v>
       </c>
       <c r="D24">
-        <v>0.004892816950762915</v>
+        <v>-0.004958089280679165</v>
       </c>
       <c r="E24">
-        <v>0.05566497359095977</v>
+        <v>-0.04978023606904174</v>
       </c>
       <c r="F24">
-        <v>-0.008916655988958015</v>
+        <v>-0.007729648555674702</v>
       </c>
       <c r="G24">
-        <v>-0.01048298685702169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0119819716280754</v>
+      </c>
+      <c r="H24">
+        <v>-0.01632520187271672</v>
+      </c>
+      <c r="I24">
+        <v>0.009942153647255174</v>
+      </c>
+      <c r="J24">
+        <v>0.001034126026762426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05050894628895394</v>
+        <v>-0.04376576053625748</v>
       </c>
       <c r="C25">
-        <v>-0.0002425687443803789</v>
+        <v>-0.01640521375243344</v>
       </c>
       <c r="D25">
-        <v>0.005727390991008416</v>
+        <v>-0.004029484548897835</v>
       </c>
       <c r="E25">
-        <v>0.0423237235750064</v>
+        <v>-0.0480043849433273</v>
       </c>
       <c r="F25">
-        <v>-0.006873049738586197</v>
+        <v>-0.01065776415830731</v>
       </c>
       <c r="G25">
-        <v>-0.013971728169589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.006148552588795166</v>
+      </c>
+      <c r="H25">
+        <v>-0.009367055051270409</v>
+      </c>
+      <c r="I25">
+        <v>0.01220581648905679</v>
+      </c>
+      <c r="J25">
+        <v>-0.009817048164660286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.002095023457345634</v>
+        <v>-0.006824587221222437</v>
       </c>
       <c r="C26">
-        <v>0.01888106759855784</v>
+        <v>-0.01882412326469274</v>
       </c>
       <c r="D26">
-        <v>-0.007045787132785373</v>
+        <v>0.003664044920889286</v>
       </c>
       <c r="E26">
-        <v>0.0544274150547147</v>
+        <v>-0.05830367638951489</v>
       </c>
       <c r="F26">
-        <v>0.006143270053867775</v>
+        <v>0.001446400665379604</v>
       </c>
       <c r="G26">
-        <v>0.01208554005419755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.00252949897144716</v>
+      </c>
+      <c r="H26">
+        <v>-0.03607900648495513</v>
+      </c>
+      <c r="I26">
+        <v>0.002145350358706174</v>
+      </c>
+      <c r="J26">
+        <v>0.01154718047322981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1095877326256594</v>
+        <v>-0.08879677684420439</v>
       </c>
       <c r="C27">
-        <v>0.004780400985489916</v>
+        <v>-0.0177505715070628</v>
       </c>
       <c r="D27">
-        <v>-0.0170258944111106</v>
+        <v>-0.02910926686979843</v>
       </c>
       <c r="E27">
-        <v>0.1170483160009143</v>
+        <v>-0.08831357029599955</v>
       </c>
       <c r="F27">
-        <v>-0.008769451926298891</v>
+        <v>-0.04477159260536259</v>
       </c>
       <c r="G27">
-        <v>-0.01731803903668932</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.003025927629600637</v>
+      </c>
+      <c r="H27">
+        <v>-0.01078130648485279</v>
+      </c>
+      <c r="I27">
+        <v>0.002746652275749752</v>
+      </c>
+      <c r="J27">
+        <v>0.01788513312877374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.02376677475093517</v>
+        <v>-0.01255806044093723</v>
       </c>
       <c r="C28">
-        <v>-0.2312754596637961</v>
+        <v>0.2248198867905026</v>
       </c>
       <c r="D28">
-        <v>0.01155206780126035</v>
+        <v>0.02226937203685951</v>
       </c>
       <c r="E28">
-        <v>0.02472797910792495</v>
+        <v>-0.03965183239765772</v>
       </c>
       <c r="F28">
-        <v>-0.001124100797885522</v>
+        <v>-0.003327720787520212</v>
       </c>
       <c r="G28">
-        <v>-0.04865246204390201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01525987979900614</v>
+      </c>
+      <c r="H28">
+        <v>0.04381681090781016</v>
+      </c>
+      <c r="I28">
+        <v>-0.1396124079487265</v>
+      </c>
+      <c r="J28">
+        <v>0.09912102772244787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01775033495007155</v>
+        <v>-0.01879440088073038</v>
       </c>
       <c r="C29">
-        <v>0.01737746384652379</v>
+        <v>-0.02038280312439726</v>
       </c>
       <c r="D29">
-        <v>-0.0192779661054291</v>
+        <v>-0.01834337642409605</v>
       </c>
       <c r="E29">
-        <v>0.03735284944123098</v>
+        <v>-0.03601300993489667</v>
       </c>
       <c r="F29">
-        <v>0.002222801664049008</v>
+        <v>-0.03003148287007363</v>
       </c>
       <c r="G29">
-        <v>0.03604650268458363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01626258075962706</v>
+      </c>
+      <c r="H29">
+        <v>-0.0616222427774344</v>
+      </c>
+      <c r="I29">
+        <v>-0.0106889666298433</v>
+      </c>
+      <c r="J29">
+        <v>0.01393035391183913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1042485688119895</v>
+        <v>-0.1028869830788473</v>
       </c>
       <c r="C30">
-        <v>-0.0006219891824410978</v>
+        <v>-0.02729299514773511</v>
       </c>
       <c r="D30">
-        <v>-0.01066891141698784</v>
+        <v>-0.03049767857269188</v>
       </c>
       <c r="E30">
-        <v>0.1281492700981221</v>
+        <v>-0.1132146849774681</v>
       </c>
       <c r="F30">
-        <v>-0.01542650918103922</v>
+        <v>-0.01366404589692365</v>
       </c>
       <c r="G30">
-        <v>-0.08053824696895463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02534039027074235</v>
+      </c>
+      <c r="H30">
+        <v>-0.009953206775372538</v>
+      </c>
+      <c r="I30">
+        <v>0.02682825014803209</v>
+      </c>
+      <c r="J30">
+        <v>-0.02175958787918697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05245144174968671</v>
+        <v>-0.0563320938506786</v>
       </c>
       <c r="C31">
-        <v>0.01144562151659903</v>
+        <v>-0.01699461644290973</v>
       </c>
       <c r="D31">
-        <v>-0.01868000006613426</v>
+        <v>-0.01497204671100013</v>
       </c>
       <c r="E31">
-        <v>-0.0004425761207216389</v>
+        <v>-0.01900326411758033</v>
       </c>
       <c r="F31">
-        <v>0.008704495495971099</v>
+        <v>0.01867274583399414</v>
       </c>
       <c r="G31">
-        <v>0.01799144698488341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03277421458502709</v>
+      </c>
+      <c r="H31">
+        <v>-0.04836713888248738</v>
+      </c>
+      <c r="I31">
+        <v>-0.01398260993176008</v>
+      </c>
+      <c r="J31">
+        <v>0.01890422205664303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.0648160992952185</v>
+        <v>-0.0468192927488646</v>
       </c>
       <c r="C32">
-        <v>0.02188876125660909</v>
+        <v>-0.04436549103340271</v>
       </c>
       <c r="D32">
-        <v>-0.006109582443545205</v>
+        <v>-0.019138294942787</v>
       </c>
       <c r="E32">
-        <v>0.1139843719916976</v>
+        <v>-0.09935480134013704</v>
       </c>
       <c r="F32">
-        <v>-0.03784267319104528</v>
+        <v>-0.038975946541145</v>
       </c>
       <c r="G32">
-        <v>0.007306332619683399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01880591052464439</v>
+      </c>
+      <c r="H32">
+        <v>-0.05883904082986792</v>
+      </c>
+      <c r="I32">
+        <v>-0.0404839260011735</v>
+      </c>
+      <c r="J32">
+        <v>-0.02112137655305413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06511658908666093</v>
+        <v>-0.05789229341448719</v>
       </c>
       <c r="C33">
-        <v>0.02573965658609536</v>
+        <v>-0.04028216732298369</v>
       </c>
       <c r="D33">
-        <v>-0.01090008532274336</v>
+        <v>-0.004247937731493031</v>
       </c>
       <c r="E33">
-        <v>0.07575067724051163</v>
+        <v>-0.08907352943906477</v>
       </c>
       <c r="F33">
-        <v>0.0166868521074404</v>
+        <v>-0.01140539037661835</v>
       </c>
       <c r="G33">
-        <v>0.007428211884781889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0113370168101956</v>
+      </c>
+      <c r="H33">
+        <v>-0.05268229457459855</v>
+      </c>
+      <c r="I33">
+        <v>0.00872949974914799</v>
+      </c>
+      <c r="J33">
+        <v>-0.002222566571191471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04552128615844823</v>
+        <v>-0.04203617420118015</v>
       </c>
       <c r="C34">
-        <v>0.0118338096629636</v>
+        <v>-0.02099394395617624</v>
       </c>
       <c r="D34">
-        <v>0.007149218235867824</v>
+        <v>-0.008066415596999874</v>
       </c>
       <c r="E34">
-        <v>0.02538338473475084</v>
+        <v>-0.03855501827221888</v>
       </c>
       <c r="F34">
-        <v>-0.008305526472773149</v>
+        <v>-0.0086197124992781</v>
       </c>
       <c r="G34">
-        <v>0.006074690783189361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.003524125166434427</v>
+      </c>
+      <c r="H34">
+        <v>-0.02412158341382229</v>
+      </c>
+      <c r="I34">
+        <v>0.004943164647611607</v>
+      </c>
+      <c r="J34">
+        <v>-0.01271762131248058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.008751934414789069</v>
+        <v>-0.01217653049179182</v>
       </c>
       <c r="C36">
-        <v>-0.007061822219841408</v>
+        <v>-0.001260830008070202</v>
       </c>
       <c r="D36">
-        <v>-0.00435563946631148</v>
+        <v>-0.005659221223768204</v>
       </c>
       <c r="E36">
-        <v>0.0263824031665746</v>
+        <v>-0.02953292729394761</v>
       </c>
       <c r="F36">
-        <v>0.0008159162504124015</v>
+        <v>-0.01148967540176255</v>
       </c>
       <c r="G36">
-        <v>0.002433296679890742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.009892033467368607</v>
+      </c>
+      <c r="H36">
+        <v>-0.03632191357279879</v>
+      </c>
+      <c r="I36">
+        <v>-0.01408408237359507</v>
+      </c>
+      <c r="J36">
+        <v>-0.004953997394795242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05147205234014362</v>
+        <v>-0.02943203322105517</v>
       </c>
       <c r="C38">
-        <v>0.005605704111120579</v>
+        <v>-0.01014104707272781</v>
       </c>
       <c r="D38">
-        <v>-0.02641448371704505</v>
+        <v>-0.007156098546084181</v>
       </c>
       <c r="E38">
-        <v>0.03233554258424653</v>
+        <v>-0.04655998134815006</v>
       </c>
       <c r="F38">
-        <v>0.001726027925477044</v>
+        <v>-0.01993646019604188</v>
       </c>
       <c r="G38">
-        <v>0.01258857081317537</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01664175144236916</v>
+      </c>
+      <c r="H38">
+        <v>-0.01001641775367466</v>
+      </c>
+      <c r="I38">
+        <v>-0.01048580826412369</v>
+      </c>
+      <c r="J38">
+        <v>-0.01400909357657066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07632635469770609</v>
+        <v>-0.06292297816506615</v>
       </c>
       <c r="C39">
-        <v>0.008137529769404373</v>
+        <v>-0.02815603402204979</v>
       </c>
       <c r="D39">
-        <v>-0.001735004254822849</v>
+        <v>-0.01860349958179761</v>
       </c>
       <c r="E39">
-        <v>0.04892145197540555</v>
+        <v>-0.06274909872552084</v>
       </c>
       <c r="F39">
-        <v>0.005971965435622028</v>
+        <v>-0.001603469189779388</v>
       </c>
       <c r="G39">
-        <v>-0.01553580670800686</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.00366654078498245</v>
+      </c>
+      <c r="H39">
+        <v>-0.02220528996377739</v>
+      </c>
+      <c r="I39">
+        <v>0.01718357776929988</v>
+      </c>
+      <c r="J39">
+        <v>-0.02076546135134382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06712946063942303</v>
+        <v>-0.05449160123459484</v>
       </c>
       <c r="C40">
-        <v>0.02947950792979287</v>
+        <v>-0.03477009325319718</v>
       </c>
       <c r="D40">
-        <v>0.0002367575354357867</v>
+        <v>-0.02155843732759655</v>
       </c>
       <c r="E40">
-        <v>0.1134193860071957</v>
+        <v>-0.1123416590424871</v>
       </c>
       <c r="F40">
-        <v>0.007272903119941017</v>
+        <v>-0.000869548885617819</v>
       </c>
       <c r="G40">
-        <v>0.0542461825580478</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.007363240457435184</v>
+      </c>
+      <c r="H40">
+        <v>-0.07823369622898664</v>
+      </c>
+      <c r="I40">
+        <v>-0.02757239957016518</v>
+      </c>
+      <c r="J40">
+        <v>-0.003398983780136749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002788474490751262</v>
+        <v>-0.0003342027906136542</v>
       </c>
       <c r="C41">
-        <v>0.006081749602331602</v>
+        <v>-0.008331266779187689</v>
       </c>
       <c r="D41">
-        <v>-0.01256546923150546</v>
+        <v>-0.00358158235751291</v>
       </c>
       <c r="E41">
-        <v>0.0204610624495929</v>
+        <v>-0.0188647563675005</v>
       </c>
       <c r="F41">
-        <v>0.02265625935053464</v>
+        <v>-0.008212456315279268</v>
       </c>
       <c r="G41">
-        <v>0.02535421889182173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02814740354264674</v>
+      </c>
+      <c r="H41">
+        <v>-0.04219541594122225</v>
+      </c>
+      <c r="I41">
+        <v>-0.01583044311661679</v>
+      </c>
+      <c r="J41">
+        <v>0.0276692287054135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1534602438615919</v>
+        <v>-0.241281561004234</v>
       </c>
       <c r="C42">
-        <v>0.1402602020695607</v>
+        <v>-0.1430932164422878</v>
       </c>
       <c r="D42">
-        <v>0.9346653211949643</v>
+        <v>0.9177954063209042</v>
       </c>
       <c r="E42">
-        <v>-0.0170103236901603</v>
+        <v>0.114304792146472</v>
       </c>
       <c r="F42">
-        <v>0.05506690525047109</v>
+        <v>0.1836771122198423</v>
       </c>
       <c r="G42">
-        <v>-0.1436059195444794</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.007828176039094017</v>
+      </c>
+      <c r="H42">
+        <v>0.0134133450532881</v>
+      </c>
+      <c r="I42">
+        <v>-0.03108585872985087</v>
+      </c>
+      <c r="J42">
+        <v>0.04894731921798996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008137560530856507</v>
+        <v>-0.0009084576857566365</v>
       </c>
       <c r="C43">
-        <v>0.009525852085454171</v>
+        <v>-0.01312395821536812</v>
       </c>
       <c r="D43">
-        <v>-0.01801690599032929</v>
+        <v>-0.005717779135405728</v>
       </c>
       <c r="E43">
-        <v>0.03543150952416121</v>
+        <v>-0.03092709212979592</v>
       </c>
       <c r="F43">
-        <v>-0.009063272097937796</v>
+        <v>-0.005609845365572785</v>
       </c>
       <c r="G43">
-        <v>0.02321816907806894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.00617328613486719</v>
+      </c>
+      <c r="H43">
+        <v>-0.03639701141338243</v>
+      </c>
+      <c r="I43">
+        <v>-0.006699876331196322</v>
+      </c>
+      <c r="J43">
+        <v>0.02029260120684985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04302757794855418</v>
+        <v>-0.02825349160837106</v>
       </c>
       <c r="C44">
-        <v>0.02995684362741397</v>
+        <v>-0.0336823812508218</v>
       </c>
       <c r="D44">
-        <v>-0.01015970996057001</v>
+        <v>-0.001239178838857813</v>
       </c>
       <c r="E44">
-        <v>0.113415847689944</v>
+        <v>-0.1214003199766847</v>
       </c>
       <c r="F44">
-        <v>0.04036914572424172</v>
+        <v>-0.03043286302309143</v>
       </c>
       <c r="G44">
-        <v>0.09067162018315927</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02747074229537876</v>
+      </c>
+      <c r="H44">
+        <v>-0.110983814913223</v>
+      </c>
+      <c r="I44">
+        <v>-0.04200387060844707</v>
+      </c>
+      <c r="J44">
+        <v>0.01021300570460047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02058366586048631</v>
+        <v>-0.01960102164448561</v>
       </c>
       <c r="C46">
-        <v>0.01448803658747373</v>
+        <v>-0.02631943548056074</v>
       </c>
       <c r="D46">
-        <v>-0.02521987847635429</v>
+        <v>-0.01720284094217582</v>
       </c>
       <c r="E46">
-        <v>0.02987517693427487</v>
+        <v>-0.04830694784299885</v>
       </c>
       <c r="F46">
-        <v>0.01917878054878485</v>
+        <v>-0.01311097002148876</v>
       </c>
       <c r="G46">
-        <v>0.03388737870084009</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01653376119661526</v>
+      </c>
+      <c r="H46">
+        <v>-0.06225285113774552</v>
+      </c>
+      <c r="I46">
+        <v>-0.007727084609303894</v>
+      </c>
+      <c r="J46">
+        <v>0.03371908219630627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07787994308632971</v>
+        <v>-0.0861240809613034</v>
       </c>
       <c r="C47">
-        <v>0.00445547793582846</v>
+        <v>-0.01459726070903553</v>
       </c>
       <c r="D47">
-        <v>-0.01911904191263967</v>
+        <v>-0.02119076619392651</v>
       </c>
       <c r="E47">
-        <v>-0.001481687991744556</v>
+        <v>-0.006163493389450832</v>
       </c>
       <c r="F47">
-        <v>0.004152062046772373</v>
+        <v>0.003609823355942922</v>
       </c>
       <c r="G47">
-        <v>0.0397012260097854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02717428292136204</v>
+      </c>
+      <c r="H47">
+        <v>-0.0706996256046741</v>
+      </c>
+      <c r="I47">
+        <v>-0.01681623375918663</v>
+      </c>
+      <c r="J47">
+        <v>0.02736126784678787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01025779855481178</v>
+        <v>-0.01269639356166349</v>
       </c>
       <c r="C48">
-        <v>0.01699291530121142</v>
+        <v>-0.01898571944047584</v>
       </c>
       <c r="D48">
-        <v>-0.01178957694405058</v>
+        <v>-0.005197130010625534</v>
       </c>
       <c r="E48">
-        <v>0.03756083766259236</v>
+        <v>-0.04039928632853313</v>
       </c>
       <c r="F48">
-        <v>0.005992228349075319</v>
+        <v>-0.01184816055781913</v>
       </c>
       <c r="G48">
-        <v>0.00292269983507981</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002593570134389929</v>
+      </c>
+      <c r="H48">
+        <v>-0.0252244062965674</v>
+      </c>
+      <c r="I48">
+        <v>-0.01084559342360967</v>
+      </c>
+      <c r="J48">
+        <v>0.01332306659773141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07439685105328145</v>
+        <v>-0.07923153334153045</v>
       </c>
       <c r="C50">
-        <v>0.03011786991278528</v>
+        <v>-0.03621152713325351</v>
       </c>
       <c r="D50">
-        <v>-0.01291417728101433</v>
+        <v>-0.01753924507358297</v>
       </c>
       <c r="E50">
-        <v>-0.01353342583305158</v>
+        <v>-0.01060392155538022</v>
       </c>
       <c r="F50">
-        <v>0.01453417075305535</v>
+        <v>0.005607428810303972</v>
       </c>
       <c r="G50">
-        <v>0.01133234034217567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.006559547020986138</v>
+      </c>
+      <c r="H50">
+        <v>-0.04989320943466118</v>
+      </c>
+      <c r="I50">
+        <v>-0.01928421517363854</v>
+      </c>
+      <c r="J50">
+        <v>-0.003799195455461522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06568697172577571</v>
+        <v>-0.0471942060987352</v>
       </c>
       <c r="C51">
-        <v>-0.03080402681765161</v>
+        <v>0.009311577190289792</v>
       </c>
       <c r="D51">
-        <v>-0.01807668232099205</v>
+        <v>-0.008282409664326154</v>
       </c>
       <c r="E51">
-        <v>0.07828158016756745</v>
+        <v>-0.102735728406487</v>
       </c>
       <c r="F51">
-        <v>0.04526551964950856</v>
+        <v>-0.004156278801095753</v>
       </c>
       <c r="G51">
-        <v>0.01784248267746546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04797198945422432</v>
+      </c>
+      <c r="H51">
+        <v>-0.04960075284866227</v>
+      </c>
+      <c r="I51">
+        <v>-0.02456330976553955</v>
+      </c>
+      <c r="J51">
+        <v>0.06548906627937509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1397007535261715</v>
+        <v>-0.1276380807301676</v>
       </c>
       <c r="C53">
-        <v>0.009493194908645138</v>
+        <v>-0.03432707739732467</v>
       </c>
       <c r="D53">
-        <v>-0.04238914421773129</v>
+        <v>-0.04558107359554413</v>
       </c>
       <c r="E53">
-        <v>-0.003789124536643349</v>
+        <v>0.01416997361269512</v>
       </c>
       <c r="F53">
-        <v>0.01201217418118752</v>
+        <v>0.007641538117783474</v>
       </c>
       <c r="G53">
-        <v>0.03043418159576657</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02963441842143693</v>
+      </c>
+      <c r="H53">
+        <v>-0.0164409455118986</v>
+      </c>
+      <c r="I53">
+        <v>0.01591896924711762</v>
+      </c>
+      <c r="J53">
+        <v>0.08626901376070317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.01951978980018336</v>
+        <v>-0.02118190462312496</v>
       </c>
       <c r="C54">
-        <v>-0.008503422263711509</v>
+        <v>-0.002759618851778879</v>
       </c>
       <c r="D54">
-        <v>-0.02936552919289008</v>
+        <v>-0.02494958937984984</v>
       </c>
       <c r="E54">
-        <v>0.04020116693356886</v>
+        <v>-0.04217601711952117</v>
       </c>
       <c r="F54">
-        <v>0.03085518760570237</v>
+        <v>-0.02223551648655032</v>
       </c>
       <c r="G54">
-        <v>0.04283780906568527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03018826424321466</v>
+      </c>
+      <c r="H54">
+        <v>-0.06896071338617554</v>
+      </c>
+      <c r="I54">
+        <v>-0.03989303023822522</v>
+      </c>
+      <c r="J54">
+        <v>0.02848225496991906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09532913572571901</v>
+        <v>-0.1019010724585521</v>
       </c>
       <c r="C55">
-        <v>-0.004447357101558176</v>
+        <v>-0.0161955024874119</v>
       </c>
       <c r="D55">
-        <v>-0.03314103398371562</v>
+        <v>-0.03001378765843127</v>
       </c>
       <c r="E55">
-        <v>0.01342253889219624</v>
+        <v>0.01717473779388446</v>
       </c>
       <c r="F55">
-        <v>-0.01973466071513633</v>
+        <v>-0.03165164000136832</v>
       </c>
       <c r="G55">
-        <v>0.02567941650546274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005182033571661456</v>
+      </c>
+      <c r="H55">
+        <v>-0.03476097985328239</v>
+      </c>
+      <c r="I55">
+        <v>0.02592077955643747</v>
+      </c>
+      <c r="J55">
+        <v>0.06682187577147129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1775879583156438</v>
+        <v>-0.169299443467815</v>
       </c>
       <c r="C56">
-        <v>-0.02110179818816803</v>
+        <v>-0.01299965784565277</v>
       </c>
       <c r="D56">
-        <v>-0.07416733431009012</v>
+        <v>-0.08858676122884153</v>
       </c>
       <c r="E56">
-        <v>-0.05168863831061284</v>
+        <v>0.06933590396254954</v>
       </c>
       <c r="F56">
-        <v>-0.04242894580643333</v>
+        <v>-0.003404759081918755</v>
       </c>
       <c r="G56">
-        <v>0.02123366227812775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.014315351684004</v>
+      </c>
+      <c r="H56">
+        <v>0.0306489178120654</v>
+      </c>
+      <c r="I56">
+        <v>0.06080462835080459</v>
+      </c>
+      <c r="J56">
+        <v>0.0727882260667527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09555600832979376</v>
+        <v>-0.07406798848674685</v>
       </c>
       <c r="C57">
-        <v>0.0144705453722274</v>
+        <v>-0.02032812291692938</v>
       </c>
       <c r="D57">
-        <v>-0.01929451345876153</v>
+        <v>-0.009593920310563327</v>
       </c>
       <c r="E57">
-        <v>0.07437078983063193</v>
+        <v>-0.08146909654450976</v>
       </c>
       <c r="F57">
-        <v>-0.009730154088483418</v>
+        <v>-0.01100360886462328</v>
       </c>
       <c r="G57">
-        <v>0.04597234620982178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005453895374240433</v>
+      </c>
+      <c r="H57">
+        <v>-0.05293894213368609</v>
+      </c>
+      <c r="I57">
+        <v>0.0166036809061877</v>
+      </c>
+      <c r="J57">
+        <v>0.01196338051368225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1713778961809153</v>
+        <v>-0.1944286573298971</v>
       </c>
       <c r="C58">
-        <v>-0.009968211160637695</v>
+        <v>-0.03339211765641378</v>
       </c>
       <c r="D58">
-        <v>0.05224363757055448</v>
+        <v>0.004802251104847132</v>
       </c>
       <c r="E58">
-        <v>0.07055530605226704</v>
+        <v>-0.1508525704766115</v>
       </c>
       <c r="F58">
-        <v>-0.07793016536337369</v>
+        <v>0.004948506021948844</v>
       </c>
       <c r="G58">
-        <v>0.1902427376722701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1552431707186023</v>
+      </c>
+      <c r="H58">
+        <v>-0.302553619451741</v>
+      </c>
+      <c r="I58">
+        <v>-0.1612526052869543</v>
+      </c>
+      <c r="J58">
+        <v>-0.1744003610367054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01423152130265577</v>
+        <v>-0.0187910598838948</v>
       </c>
       <c r="C59">
-        <v>-0.2004388582579705</v>
+        <v>0.197290376758834</v>
       </c>
       <c r="D59">
-        <v>-0.02809573765917019</v>
+        <v>-0.01449443219100994</v>
       </c>
       <c r="E59">
-        <v>0.03592961152527783</v>
+        <v>-0.05293805385222465</v>
       </c>
       <c r="F59">
-        <v>-0.006947811469860146</v>
+        <v>0.00971164606771515</v>
       </c>
       <c r="G59">
-        <v>-0.05288847273185966</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0004659544305402275</v>
+      </c>
+      <c r="H59">
+        <v>0.03457283227949107</v>
+      </c>
+      <c r="I59">
+        <v>-0.07703366511755791</v>
+      </c>
+      <c r="J59">
+        <v>0.03789616967642807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.172961666138466</v>
+        <v>-0.1769274297712809</v>
       </c>
       <c r="C60">
-        <v>-0.1190612407053963</v>
+        <v>0.06560178449103864</v>
       </c>
       <c r="D60">
-        <v>-0.048329737642098</v>
+        <v>-0.02216976303495886</v>
       </c>
       <c r="E60">
-        <v>0.1853597805002505</v>
+        <v>-0.2072608539910447</v>
       </c>
       <c r="F60">
-        <v>0.0009049856728332043</v>
+        <v>0.03534396504282927</v>
       </c>
       <c r="G60">
-        <v>-0.1581457518661716</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05932746108370625</v>
+      </c>
+      <c r="H60">
+        <v>0.2296678450068787</v>
+      </c>
+      <c r="I60">
+        <v>0.1055024833786621</v>
+      </c>
+      <c r="J60">
+        <v>-0.04926165334674065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05189007705009769</v>
+        <v>-0.03950569368268266</v>
       </c>
       <c r="C61">
-        <v>0.001351101886835016</v>
+        <v>-0.01521413158508022</v>
       </c>
       <c r="D61">
-        <v>0.003762377950822556</v>
+        <v>-0.002247960546931357</v>
       </c>
       <c r="E61">
-        <v>0.04043860488794191</v>
+        <v>-0.04590210923933594</v>
       </c>
       <c r="F61">
-        <v>0.002101836683605417</v>
+        <v>-0.002685082028013482</v>
       </c>
       <c r="G61">
-        <v>-0.03579646450260512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0002820238222675781</v>
+      </c>
+      <c r="H61">
+        <v>-0.004661403802061257</v>
+      </c>
+      <c r="I61">
+        <v>0.0223697177768516</v>
+      </c>
+      <c r="J61">
+        <v>-0.03277379230084657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0356274520906242</v>
+        <v>-0.02753480039807042</v>
       </c>
       <c r="C63">
-        <v>-0.007072155270396873</v>
+        <v>-0.0134975812959096</v>
       </c>
       <c r="D63">
-        <v>-0.01138949696791985</v>
+        <v>-0.009345899996667685</v>
       </c>
       <c r="E63">
-        <v>0.04408443611956284</v>
+        <v>-0.03589458004599669</v>
       </c>
       <c r="F63">
-        <v>-0.0004933395929465024</v>
+        <v>-0.01067053513953318</v>
       </c>
       <c r="G63">
-        <v>0.0142413366741512</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.001214179442107715</v>
+      </c>
+      <c r="H63">
+        <v>-0.04258675741357372</v>
+      </c>
+      <c r="I63">
+        <v>-0.01292069421339929</v>
+      </c>
+      <c r="J63">
+        <v>0.04431488545450953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09523180897715286</v>
+        <v>-0.06845641856553222</v>
       </c>
       <c r="C64">
-        <v>0.003514719600113056</v>
+        <v>-0.02775766039020214</v>
       </c>
       <c r="D64">
-        <v>-0.06996959173814141</v>
+        <v>-0.03805495203981366</v>
       </c>
       <c r="E64">
-        <v>0.09406311528125402</v>
+        <v>-0.06362375300390646</v>
       </c>
       <c r="F64">
-        <v>0.07826159227927965</v>
+        <v>-0.06189864618909574</v>
       </c>
       <c r="G64">
-        <v>-0.03471610975786545</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06697720349204161</v>
+      </c>
+      <c r="H64">
+        <v>0.009565734331736745</v>
+      </c>
+      <c r="I64">
+        <v>0.02994303946978127</v>
+      </c>
+      <c r="J64">
+        <v>0.07031874430496009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01040859163363808</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.006115888924382542</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.002349050989455683</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004420468731679176</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0020335178407672</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0134909429519882</v>
+      </c>
+      <c r="H65">
+        <v>0.001157215041457158</v>
+      </c>
+      <c r="I65">
+        <v>0.000961681416188134</v>
+      </c>
+      <c r="J65">
+        <v>0.0003852867256831749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.100922743355492</v>
+        <v>-0.07516176232219998</v>
       </c>
       <c r="C66">
-        <v>0.01141894576936498</v>
+        <v>-0.03620844753277928</v>
       </c>
       <c r="D66">
-        <v>-0.04145756656705902</v>
+        <v>-0.0407424143363761</v>
       </c>
       <c r="E66">
-        <v>0.08763074488057639</v>
+        <v>-0.08885627141506844</v>
       </c>
       <c r="F66">
-        <v>0.00892994099170796</v>
+        <v>-0.004324387444934456</v>
       </c>
       <c r="G66">
-        <v>-0.009365625245011475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.003251910190310771</v>
+      </c>
+      <c r="H66">
+        <v>-0.02176958783260208</v>
+      </c>
+      <c r="I66">
+        <v>0.04148932759565515</v>
+      </c>
+      <c r="J66">
+        <v>-0.01519962918500974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05740339133338786</v>
+        <v>-0.03956860532380409</v>
       </c>
       <c r="C67">
-        <v>-0.01656711182054615</v>
+        <v>0.007921126933397199</v>
       </c>
       <c r="D67">
-        <v>-0.0140957341646273</v>
+        <v>-0.004342660127571533</v>
       </c>
       <c r="E67">
-        <v>0.02836891495173487</v>
+        <v>-0.04186099663429324</v>
       </c>
       <c r="F67">
-        <v>0.0004731641031763398</v>
+        <v>-0.008198756498495467</v>
       </c>
       <c r="G67">
-        <v>0.01852554013912145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02331652194454611</v>
+      </c>
+      <c r="H67">
+        <v>0.0007916763953430969</v>
+      </c>
+      <c r="I67">
+        <v>0.0270733970300864</v>
+      </c>
+      <c r="J67">
+        <v>-0.02333512771361158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.009570147558175271</v>
+        <v>-0.02861829562306843</v>
       </c>
       <c r="C68">
-        <v>-0.2465007238721252</v>
+        <v>0.2374763146116873</v>
       </c>
       <c r="D68">
-        <v>-0.006806189747155047</v>
+        <v>-0.003416489575435922</v>
       </c>
       <c r="E68">
-        <v>0.02632977784924798</v>
+        <v>-0.03907174708752642</v>
       </c>
       <c r="F68">
-        <v>-0.02010215342136079</v>
+        <v>-0.004328367740928253</v>
       </c>
       <c r="G68">
-        <v>-0.0380338968226825</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01217850806061932</v>
+      </c>
+      <c r="H68">
+        <v>0.03899513035503434</v>
+      </c>
+      <c r="I68">
+        <v>-0.1506297733756343</v>
+      </c>
+      <c r="J68">
+        <v>0.09463426809777174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06365625797786514</v>
+        <v>-0.06751959784495334</v>
       </c>
       <c r="C69">
-        <v>0.006518461023257195</v>
+        <v>-0.01107941793021065</v>
       </c>
       <c r="D69">
-        <v>-0.02846135809443024</v>
+        <v>-0.02725695319901457</v>
       </c>
       <c r="E69">
-        <v>-7.055545768948099e-07</v>
+        <v>-0.01199772077381394</v>
       </c>
       <c r="F69">
-        <v>-0.00464801064228421</v>
+        <v>0.006987252760278257</v>
       </c>
       <c r="G69">
-        <v>0.005614854862304963</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01792246145251597</v>
+      </c>
+      <c r="H69">
+        <v>-0.05105148828904442</v>
+      </c>
+      <c r="I69">
+        <v>8.06942389575403e-05</v>
+      </c>
+      <c r="J69">
+        <v>0.007085658169036026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.007642004180651685</v>
+        <v>-0.03221527784399541</v>
       </c>
       <c r="C71">
-        <v>-0.224892484657003</v>
+        <v>0.2302865612155693</v>
       </c>
       <c r="D71">
-        <v>-0.003518937947828826</v>
+        <v>0.01719864469940598</v>
       </c>
       <c r="E71">
-        <v>0.04946368085653909</v>
+        <v>-0.05905226175229426</v>
       </c>
       <c r="F71">
-        <v>-0.02133963114152148</v>
+        <v>0.02299926134552268</v>
       </c>
       <c r="G71">
-        <v>-0.1535324454912504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.001514527232135153</v>
+      </c>
+      <c r="H71">
+        <v>0.06026900378290626</v>
+      </c>
+      <c r="I71">
+        <v>-0.1611320522944227</v>
+      </c>
+      <c r="J71">
+        <v>0.03414263536867721</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.101392316632252</v>
+        <v>-0.1109091700395331</v>
       </c>
       <c r="C72">
-        <v>-0.02252512997006527</v>
+        <v>0.008149517245926436</v>
       </c>
       <c r="D72">
-        <v>-0.04646699361874397</v>
+        <v>-0.06050755838691319</v>
       </c>
       <c r="E72">
-        <v>0.06474113129309274</v>
+        <v>-0.08453295327500768</v>
       </c>
       <c r="F72">
-        <v>-0.007832681705890332</v>
+        <v>-0.01666242402695927</v>
       </c>
       <c r="G72">
-        <v>0.01503230856033888</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03347049737349128</v>
+      </c>
+      <c r="H72">
+        <v>0.001906987457569034</v>
+      </c>
+      <c r="I72">
+        <v>-0.006785344198651037</v>
+      </c>
+      <c r="J72">
+        <v>-0.02407968069914742</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2709176547683215</v>
+        <v>-0.2721835896824394</v>
       </c>
       <c r="C73">
-        <v>-0.2192601953677927</v>
+        <v>0.1460684510620428</v>
       </c>
       <c r="D73">
-        <v>-0.01490585005332502</v>
+        <v>0.006811028472049676</v>
       </c>
       <c r="E73">
-        <v>0.2812417678692382</v>
+        <v>-0.3211039524506462</v>
       </c>
       <c r="F73">
-        <v>-0.04951314775182286</v>
+        <v>0.06537728558844051</v>
       </c>
       <c r="G73">
-        <v>-0.3777614958565451</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1367207564348189</v>
+      </c>
+      <c r="H73">
+        <v>0.4174212807278596</v>
+      </c>
+      <c r="I73">
+        <v>0.2282285257136366</v>
+      </c>
+      <c r="J73">
+        <v>-0.3315158737826776</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1538648189682383</v>
+        <v>-0.1530253363642035</v>
       </c>
       <c r="C74">
-        <v>-0.01496108694385011</v>
+        <v>-0.007537541952908351</v>
       </c>
       <c r="D74">
-        <v>-0.05054276367385736</v>
+        <v>-0.04658284053506341</v>
       </c>
       <c r="E74">
-        <v>0.008733182707411505</v>
+        <v>0.02499772413831236</v>
       </c>
       <c r="F74">
-        <v>-0.04605018349591461</v>
+        <v>-0.001419172279981818</v>
       </c>
       <c r="G74">
-        <v>0.0009812429785296568</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01861468106758585</v>
+      </c>
+      <c r="H74">
+        <v>0.02185674266322703</v>
+      </c>
+      <c r="I74">
+        <v>0.06248958060890668</v>
+      </c>
+      <c r="J74">
+        <v>0.07672183367304281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2360180358898715</v>
+        <v>-0.2458667835288882</v>
       </c>
       <c r="C75">
-        <v>-0.01822915702795873</v>
+        <v>-0.01763350918899993</v>
       </c>
       <c r="D75">
-        <v>-0.05242181233232462</v>
+        <v>-0.1016558161298183</v>
       </c>
       <c r="E75">
-        <v>-0.09186498517240838</v>
+        <v>0.1125743904087671</v>
       </c>
       <c r="F75">
-        <v>-0.01800432698749461</v>
+        <v>0.02334833352688494</v>
       </c>
       <c r="G75">
-        <v>0.06801778056401458</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02455204535050982</v>
+      </c>
+      <c r="H75">
+        <v>0.01229476587022105</v>
+      </c>
+      <c r="I75">
+        <v>0.06318673487475279</v>
+      </c>
+      <c r="J75">
+        <v>0.178491619133347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2362095726369309</v>
+        <v>-0.2607524915162784</v>
       </c>
       <c r="C76">
-        <v>-0.01530088108690223</v>
+        <v>-0.00719613552843633</v>
       </c>
       <c r="D76">
-        <v>-0.09260959915745988</v>
+        <v>-0.122164963874339</v>
       </c>
       <c r="E76">
-        <v>-0.06845545250874623</v>
+        <v>0.1274755063599119</v>
       </c>
       <c r="F76">
-        <v>-0.03036181569916764</v>
+        <v>-0.008546370284195316</v>
       </c>
       <c r="G76">
-        <v>0.03444802129738769</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.01616027718174342</v>
+      </c>
+      <c r="H76">
+        <v>0.007599271163757828</v>
+      </c>
+      <c r="I76">
+        <v>0.1178422688473207</v>
+      </c>
+      <c r="J76">
+        <v>0.1537157789453708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1185424017807484</v>
+        <v>-0.1267146756050543</v>
       </c>
       <c r="C77">
-        <v>0.01316493512310802</v>
+        <v>-0.04166234617339356</v>
       </c>
       <c r="D77">
-        <v>0.03708447554250981</v>
+        <v>0.04855483253721578</v>
       </c>
       <c r="E77">
-        <v>0.1734269985639992</v>
+        <v>-0.1735612029456266</v>
       </c>
       <c r="F77">
-        <v>-0.02022010648424549</v>
+        <v>-0.05823141855997091</v>
       </c>
       <c r="G77">
-        <v>0.1153326521765736</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02397323955087851</v>
+      </c>
+      <c r="H77">
+        <v>-0.1468212233287601</v>
+      </c>
+      <c r="I77">
+        <v>-0.1342690311900749</v>
+      </c>
+      <c r="J77">
+        <v>0.1165411398436363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.0938815269622628</v>
+        <v>-0.08582711914270404</v>
       </c>
       <c r="C78">
-        <v>0.02683455843057404</v>
+        <v>-0.05186512275138347</v>
       </c>
       <c r="D78">
-        <v>0.02449626049224034</v>
+        <v>0.001663605459525447</v>
       </c>
       <c r="E78">
-        <v>0.094800095146237</v>
+        <v>-0.08761945157595449</v>
       </c>
       <c r="F78">
-        <v>-0.0007107884251175386</v>
+        <v>-0.03988751364489829</v>
       </c>
       <c r="G78">
-        <v>-0.0293679468186016</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01334656379945756</v>
+      </c>
+      <c r="H78">
+        <v>-0.01742022547340188</v>
+      </c>
+      <c r="I78">
+        <v>-0.02564979862184599</v>
+      </c>
+      <c r="J78">
+        <v>0.02831927515966251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07744214993454986</v>
+        <v>-0.08870543093333405</v>
       </c>
       <c r="C80">
-        <v>-0.01017089816664278</v>
+        <v>0.05579042864673905</v>
       </c>
       <c r="D80">
-        <v>0.03146054613562201</v>
+        <v>0.164265898651151</v>
       </c>
       <c r="E80">
-        <v>-0.01923621626571001</v>
+        <v>0.1644672973772117</v>
       </c>
       <c r="F80">
-        <v>0.004684956659304742</v>
+        <v>-0.941857928382239</v>
       </c>
       <c r="G80">
-        <v>0.2989564609099037</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01919552465695816</v>
+      </c>
+      <c r="H80">
+        <v>0.1312104800385069</v>
+      </c>
+      <c r="I80">
+        <v>0.00742814643432128</v>
+      </c>
+      <c r="J80">
+        <v>-0.107614055880212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1669732070512641</v>
+        <v>-0.1742185008086973</v>
       </c>
       <c r="C81">
-        <v>-0.0145723334885505</v>
+        <v>-0.005532977825168631</v>
       </c>
       <c r="D81">
-        <v>-0.04902224249486112</v>
+        <v>-0.08675425092875926</v>
       </c>
       <c r="E81">
-        <v>-0.1056570025920353</v>
+        <v>0.1323436210056084</v>
       </c>
       <c r="F81">
-        <v>-0.04654260029992933</v>
+        <v>0.02559072810819019</v>
       </c>
       <c r="G81">
-        <v>0.04984511007064334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01347372574215505</v>
+      </c>
+      <c r="H81">
+        <v>0.008855869905418883</v>
+      </c>
+      <c r="I81">
+        <v>0.06183068786361581</v>
+      </c>
+      <c r="J81">
+        <v>0.1248971097699306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.07457217183539372</v>
+        <v>-0.06388519349030541</v>
       </c>
       <c r="C83">
-        <v>0.02151039896106573</v>
+        <v>-0.03504956728125141</v>
       </c>
       <c r="D83">
-        <v>0.08058633343380604</v>
+        <v>0.04529642164764335</v>
       </c>
       <c r="E83">
-        <v>0.07715487147812491</v>
+        <v>-0.07187800883523889</v>
       </c>
       <c r="F83">
-        <v>0.0667572382569296</v>
+        <v>0.007479773277393126</v>
       </c>
       <c r="G83">
-        <v>0.04409018767262524</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04745597097828824</v>
+      </c>
+      <c r="H83">
+        <v>-0.04470905746427555</v>
+      </c>
+      <c r="I83">
+        <v>0.01413347335186741</v>
+      </c>
+      <c r="J83">
+        <v>0.0885347947287024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.247034779223159</v>
+        <v>-0.2582583078326101</v>
       </c>
       <c r="C85">
-        <v>0.04135992919593024</v>
+        <v>-0.05092400896754837</v>
       </c>
       <c r="D85">
-        <v>-0.04160749821413298</v>
+        <v>-0.08472967780463825</v>
       </c>
       <c r="E85">
-        <v>-0.1055699821556069</v>
+        <v>0.1370887852357837</v>
       </c>
       <c r="F85">
-        <v>-0.007013950033794527</v>
+        <v>-0.01018421763439149</v>
       </c>
       <c r="G85">
-        <v>0.09039917350625822</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02031061180726609</v>
+      </c>
+      <c r="H85">
+        <v>-0.02608458059444048</v>
+      </c>
+      <c r="I85">
+        <v>0.0866967746793432</v>
+      </c>
+      <c r="J85">
+        <v>0.1998105420377648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04640680878552095</v>
+        <v>-0.02862229345170227</v>
       </c>
       <c r="C86">
-        <v>0.03008721157612785</v>
+        <v>-0.04411816611757417</v>
       </c>
       <c r="D86">
-        <v>-0.0119919153137723</v>
+        <v>-0.007649162271648115</v>
       </c>
       <c r="E86">
-        <v>0.05529550532293728</v>
+        <v>-0.05935801320521032</v>
       </c>
       <c r="F86">
-        <v>-0.006720464396821975</v>
+        <v>-0.03378560587253324</v>
       </c>
       <c r="G86">
-        <v>0.007759464668486123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.008112788405446851</v>
+      </c>
+      <c r="H86">
+        <v>-0.03237492578234461</v>
+      </c>
+      <c r="I86">
+        <v>-0.07806358531799876</v>
+      </c>
+      <c r="J86">
+        <v>-0.002752149289572548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.0331275109306656</v>
+        <v>-0.03932815020769514</v>
       </c>
       <c r="C87">
-        <v>-0.04994990179332388</v>
+        <v>0.02365920158396773</v>
       </c>
       <c r="D87">
-        <v>-0.01590515209587896</v>
+        <v>-0.001726890740471882</v>
       </c>
       <c r="E87">
-        <v>0.05619202656964049</v>
+        <v>-0.08481722701809026</v>
       </c>
       <c r="F87">
-        <v>0.0140862239996767</v>
+        <v>-0.01872664611406653</v>
       </c>
       <c r="G87">
-        <v>-0.1722704903099818</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.006337975475612385</v>
+      </c>
+      <c r="H87">
+        <v>0.01703096276063286</v>
+      </c>
+      <c r="I87">
+        <v>-0.04288622008454543</v>
+      </c>
+      <c r="J87">
+        <v>-0.1033383456054776</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03313978272427424</v>
+        <v>-0.02118367486894378</v>
       </c>
       <c r="C88">
-        <v>0.02063909575929668</v>
+        <v>-0.01539531320879315</v>
       </c>
       <c r="D88">
-        <v>-0.007887033704869383</v>
+        <v>-0.01213683456081153</v>
       </c>
       <c r="E88">
-        <v>0.004184757833119606</v>
+        <v>-0.00395804078812874</v>
       </c>
       <c r="F88">
-        <v>-0.006880785604687864</v>
+        <v>-0.02186997234655916</v>
       </c>
       <c r="G88">
-        <v>0.05826268866527969</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02704469086941485</v>
+      </c>
+      <c r="H88">
+        <v>-0.0489067831945019</v>
+      </c>
+      <c r="I88">
+        <v>0.008052158067113875</v>
+      </c>
+      <c r="J88">
+        <v>-0.02144515017888832</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02523471864062285</v>
+        <v>-0.04348505560714385</v>
       </c>
       <c r="C89">
-        <v>-0.4359129752154582</v>
+        <v>0.4007931655918892</v>
       </c>
       <c r="D89">
-        <v>0.08139427974032099</v>
+        <v>0.04887546278390057</v>
       </c>
       <c r="E89">
-        <v>-0.01369684797538236</v>
+        <v>-0.04523090352446742</v>
       </c>
       <c r="F89">
-        <v>0.03920011085913801</v>
+        <v>0.03539411591609868</v>
       </c>
       <c r="G89">
-        <v>0.02440955526405386</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07362244457763761</v>
+      </c>
+      <c r="H89">
+        <v>-0.008654711702624654</v>
+      </c>
+      <c r="I89">
+        <v>-0.2371552563252143</v>
+      </c>
+      <c r="J89">
+        <v>0.1810641994744272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.02934002835997978</v>
+        <v>-0.0234794648255329</v>
       </c>
       <c r="C90">
-        <v>-0.3064385082559591</v>
+        <v>0.328774138677299</v>
       </c>
       <c r="D90">
-        <v>0.008261823728518414</v>
+        <v>0.02552573439529935</v>
       </c>
       <c r="E90">
-        <v>0.03033755220847012</v>
+        <v>-0.03056037047235138</v>
       </c>
       <c r="F90">
-        <v>-0.01319623636943938</v>
+        <v>-0.007464695000686416</v>
       </c>
       <c r="G90">
-        <v>-0.07321681433128077</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.009250967666025031</v>
+      </c>
+      <c r="H90">
+        <v>0.04968205017340468</v>
+      </c>
+      <c r="I90">
+        <v>-0.1661150895202849</v>
+      </c>
+      <c r="J90">
+        <v>0.128775011274316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3213003173255786</v>
+        <v>-0.3263129384882988</v>
       </c>
       <c r="C91">
-        <v>-0.005192434063450806</v>
+        <v>-0.02410175624896188</v>
       </c>
       <c r="D91">
-        <v>-0.04333410476594927</v>
+        <v>-0.1024016027766229</v>
       </c>
       <c r="E91">
-        <v>-0.2367296650420295</v>
+        <v>0.2603713473368445</v>
       </c>
       <c r="F91">
-        <v>-0.06722710037676848</v>
+        <v>0.03572741765211997</v>
       </c>
       <c r="G91">
-        <v>0.2550322256370559</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02326055148439336</v>
+      </c>
+      <c r="H91">
+        <v>-0.003459056307559429</v>
+      </c>
+      <c r="I91">
+        <v>0.162010504117469</v>
+      </c>
+      <c r="J91">
+        <v>0.3434284910352661</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03345499248101908</v>
+        <v>-0.06985179273855148</v>
       </c>
       <c r="C92">
-        <v>-0.4633245484906628</v>
+        <v>0.4809716641870592</v>
       </c>
       <c r="D92">
-        <v>0.2076234847123622</v>
+        <v>0.07828998405650975</v>
       </c>
       <c r="E92">
-        <v>-0.1073318441611985</v>
+        <v>0.1312502214653833</v>
       </c>
       <c r="F92">
-        <v>-0.05132796586297562</v>
+        <v>0.02182358746387485</v>
       </c>
       <c r="G92">
-        <v>0.5030449357645365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03968206759704179</v>
+      </c>
+      <c r="H92">
+        <v>-0.5758566878631576</v>
+      </c>
+      <c r="I92">
+        <v>0.5112203559545787</v>
+      </c>
+      <c r="J92">
+        <v>-0.3170761852839129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.03456018838961199</v>
+        <v>-0.02812780142867074</v>
       </c>
       <c r="C93">
-        <v>-0.3708062309360641</v>
+        <v>0.4073813223514027</v>
       </c>
       <c r="D93">
-        <v>0.06343477292228863</v>
+        <v>0.05538886866921192</v>
       </c>
       <c r="E93">
-        <v>-0.04809824905671303</v>
+        <v>0.02787362085049929</v>
       </c>
       <c r="F93">
-        <v>-0.005469097026017172</v>
+        <v>0.01402447479920162</v>
       </c>
       <c r="G93">
-        <v>0.02101202965591539</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03960194418963931</v>
+      </c>
+      <c r="H93">
+        <v>0.05668843215726568</v>
+      </c>
+      <c r="I93">
+        <v>-0.154670672289539</v>
+      </c>
+      <c r="J93">
+        <v>0.1645031503537934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3276158828214502</v>
+        <v>-0.3356669382922033</v>
       </c>
       <c r="C94">
-        <v>0.001365641121888625</v>
+        <v>-0.02364620111300414</v>
       </c>
       <c r="D94">
-        <v>-0.007079936350931913</v>
+        <v>-0.1580718834820973</v>
       </c>
       <c r="E94">
-        <v>-0.5697024941370622</v>
+        <v>0.4238684382578203</v>
       </c>
       <c r="F94">
-        <v>-0.3545744555988907</v>
+        <v>0.1124194441375941</v>
       </c>
       <c r="G94">
-        <v>-0.2546046800323927</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1913792273338823</v>
+      </c>
+      <c r="H94">
+        <v>-0.02417065635598133</v>
+      </c>
+      <c r="I94">
+        <v>-0.517595592540809</v>
+      </c>
+      <c r="J94">
+        <v>-0.5089181640459828</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1900251437910813</v>
+        <v>-0.143920252443079</v>
       </c>
       <c r="C95">
-        <v>-0.0504345207690829</v>
+        <v>-0.05106649250885116</v>
       </c>
       <c r="D95">
-        <v>-0.05601501973358799</v>
+        <v>-0.02979454527329592</v>
       </c>
       <c r="E95">
-        <v>-0.2440627238832883</v>
+        <v>0.003257142474191525</v>
       </c>
       <c r="F95">
-        <v>0.9022482302839596</v>
+        <v>0.06075016296126015</v>
       </c>
       <c r="G95">
-        <v>-0.04961739526475943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9324989054255459</v>
+      </c>
+      <c r="H95">
+        <v>0.07538258199585286</v>
+      </c>
+      <c r="I95">
+        <v>-0.06753455380232498</v>
+      </c>
+      <c r="J95">
+        <v>-0.2094061837364175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2065084802943686</v>
+        <v>-0.2056277385255999</v>
       </c>
       <c r="C98">
-        <v>-0.1394461866112064</v>
+        <v>0.0894779828546531</v>
       </c>
       <c r="D98">
-        <v>-0.0002178055368853893</v>
+        <v>0.01110805144275868</v>
       </c>
       <c r="E98">
-        <v>0.1173770701804927</v>
+        <v>-0.1693211809502167</v>
       </c>
       <c r="F98">
-        <v>-0.003654791413141439</v>
+        <v>0.06738518458655079</v>
       </c>
       <c r="G98">
-        <v>-0.2275262585460378</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06093088563153975</v>
+      </c>
+      <c r="H98">
+        <v>0.2978950795503519</v>
+      </c>
+      <c r="I98">
+        <v>0.1868604362781052</v>
+      </c>
+      <c r="J98">
+        <v>-0.1199934673212213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.0176263367889446</v>
+        <v>-0.01223767775492936</v>
       </c>
       <c r="C101">
-        <v>0.01787415433315542</v>
+        <v>-0.03035005779660734</v>
       </c>
       <c r="D101">
-        <v>-0.02086792284796387</v>
+        <v>-0.02457772069912944</v>
       </c>
       <c r="E101">
-        <v>0.03783526859297916</v>
+        <v>-0.0604493894985627</v>
       </c>
       <c r="F101">
-        <v>0.002129700737711954</v>
+        <v>-0.03198736325925901</v>
       </c>
       <c r="G101">
-        <v>0.0366820433297042</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.00237248886695024</v>
+      </c>
+      <c r="H101">
+        <v>-0.1229120105115379</v>
+      </c>
+      <c r="I101">
+        <v>-0.01593687861857033</v>
+      </c>
+      <c r="J101">
+        <v>-0.01287571974466096</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.122783177607774</v>
+        <v>-0.1219538807768928</v>
       </c>
       <c r="C102">
-        <v>-0.005490044621141471</v>
+        <v>-0.02167173841275177</v>
       </c>
       <c r="D102">
-        <v>-0.04261037991285616</v>
+        <v>-0.05302135557359322</v>
       </c>
       <c r="E102">
-        <v>-0.07154764832864551</v>
+        <v>0.08172647222816666</v>
       </c>
       <c r="F102">
-        <v>0.02706512256114625</v>
+        <v>-0.001929180307744328</v>
       </c>
       <c r="G102">
-        <v>0.0168063109784541</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0418615528208818</v>
+      </c>
+      <c r="H102">
+        <v>0.003303508290229569</v>
+      </c>
+      <c r="I102">
+        <v>0.001016446963242081</v>
+      </c>
+      <c r="J102">
+        <v>0.06523895516663292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01505137981898689</v>
+        <v>-0.0226188080259261</v>
       </c>
       <c r="C103">
-        <v>0.003668954534219609</v>
+        <v>-0.004724687930534439</v>
       </c>
       <c r="D103">
-        <v>-0.01414019905030036</v>
+        <v>-0.0162078944879737</v>
       </c>
       <c r="E103">
-        <v>-0.03064003193523242</v>
+        <v>0.01527899148394478</v>
       </c>
       <c r="F103">
-        <v>-0.00930261663829649</v>
+        <v>-0.002659551838107245</v>
       </c>
       <c r="G103">
-        <v>-0.01640151645777124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01632713489607409</v>
+      </c>
+      <c r="H103">
+        <v>-0.003813974266266102</v>
+      </c>
+      <c r="I103">
+        <v>-0.02715630170495141</v>
+      </c>
+      <c r="J103">
+        <v>0.007223392334510478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
